--- a/Papers/Papers.xlsx
+++ b/Papers/Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduation-Project\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19A7AD4-684A-4B28-A9F2-E7834ADC4DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18690C84-76C9-4C37-AA3F-D1A23F57538D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,537 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+  <si>
+    <t>6. IIHT: Medical Report Generation with
+Image-to-Indicator Hierarchical Transformer.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract </t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>By</t>
+  </si>
+  <si>
+    <t>IU X-Ray</t>
+  </si>
+  <si>
+    <t>1. Classifier
+2. Indicator expansion
+3. Generator</t>
+  </si>
+  <si>
+    <t>Challenges</t>
+  </si>
+  <si>
+    <r>
+      <t>Their Constribution is :
+1. Aim to alleviate the data bias/imbalance problem(More Normal than abnormal Images)
+2. We develop a dynamic approach which leverages integrated indicator information and allows radiologists</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to further adjust the report fluency and accuracy.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. We conduct comprehensive experiments and comparisons with state-of-the art methods on the IU X-Ray dataset and demonstrate that our proposed method can achieve more accurate radiology reports
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Our method effectively mitigates the issue of misleading the generated medical reports, and thus surpasses the performance of the existing approaches.</t>
+    </r>
+  </si>
+  <si>
+    <t>2023 I think is isn't implenented :D</t>
+  </si>
+  <si>
+    <t>Basma</t>
+  </si>
+  <si>
+    <t>The proposed IIHT method is feasible for radiologists to modify disease indicators in real-world scenarios and integrate
+the operations into the indicator expansion module for fluent and accu_x0002_rate medical report generation.
+Extensive experiments and comparisons
+with state-of-the-art methods under various evaluation metrics demon_x0002_strate the great performance of the proposed method.</t>
+  </si>
+  <si>
+    <t>report_generation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Novel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the proposed method solves one of the major complaints of radiologists regarding CAD systems, namely, the lack of explanation for the CAD system decision process. Our system can actually explain[ to radiologist why a particular diagnosis is made, using the standard radiological language].</t>
+    </r>
+  </si>
+  <si>
+    <t>1. automatic or semiautomatic lesion detection
+2. Image features extractor
+3. Semantic layer that provides a final, well-explained decision. (CRF: Conditional Random Field)</t>
+  </si>
+  <si>
+    <t>Take Care of the X-ray type used</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The main emphasis of this paper is the report generation by estimating the mapping from visual features to semantic values. Therefore, we do not provide a description of the first module, the lesion detection, since a specific detection method, either automatic or semiautomatic, is less important and is beyond the scope of this pape
+The main obstacle for this system is the accuracy of the illusion detection modle bec they ahven't focused on</t>
+  </si>
+  <si>
+    <t>7.From medical image
+to automatic medical
+report generation</t>
+  </si>
+  <si>
+    <t>report_generation
+reasoning</t>
+  </si>
+  <si>
+    <t>8.Chest X-Ray Report Generation from Chest-X Ray
+Images.pdf</t>
+  </si>
+  <si>
+    <t>Using Generation-Based Approach</t>
+  </si>
+  <si>
+    <t>It introduces the 3 approcahes
+with code of the template based to be used in genertaive approach [3]
+Refer to page 3 I think they used simple thing from sctrach instead of the pretrainerd encoder</t>
+  </si>
+  <si>
+    <t>A lot of code is referred in this paper &lt;3</t>
+  </si>
+  <si>
+    <t>1. Encoder: UNet pretrained on brain MRI images as an image encoder
+2. Decoder</t>
+  </si>
+  <si>
+    <t>9. Improving Factual Completeness and Consistency of
+Image-to-Text Radiology Report Generation.pdf</t>
+  </si>
+  <si>
+    <t>report_generation
+stanford</t>
+  </si>
+  <si>
+    <r>
+      <t>Reniformnet learning with 2 rewrads:
+1. We propose two simple rewards for image_x0002_to-text radiology report generation, which focus on</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> capturing the factual completeness and consistency of generated reports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and a
+weak supervision-based approach for training a radiology-domain NLI model to realize the second reward.
+2. We present a new radiology report generation model that directly optimizes these new rewards with RL, showing that previous approaches that optimize traditional NLG metrics are inadequate, and that the proposed ap_x0002_proach substantially improves performance on
+clinical metrics (as much as ∆ + 64.2%) on
+two publicly available datasets.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Encoder 
+2. Decoder</t>
+  </si>
+  <si>
+    <t>report_generation
+Consitsency
+stanford</t>
+  </si>
+  <si>
+    <t>Reniforcment learning</t>
+  </si>
+  <si>
+    <t>refer to page 7</t>
+  </si>
+  <si>
+    <t>code of part of it i think :D</t>
+  </si>
+  <si>
+    <t>10.Weakly Supervised Contrastive Learning for Chest X-Ray Report
+Generation/pdf</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>11.Replace and Report NLP Assisted Radiology Report Generation.pdf</t>
+  </si>
+  <si>
+    <t>template-based approach</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Problem with others</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that if at least one organ is abnormal, the report is classified as abnormal, but it still contains more normal sentences than abnormal. As a result, existing text generation models may be overly focused on widely reported normal findings. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Their sol </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hence, we propose an approach to generating radiology re_x0002_ports by generating pathological descriptions, i.e., descriptions of abnormal findings, and then replacing corresponding normal descriptions from the normal report template with a generated pathological description.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Image tagger
+2. Text generator (i.e., transformer)
+3. Span identifier
+4. Replacement module</t>
+  </si>
+  <si>
+    <t>1.Generating the tags for the input radiography
+2. Generating pathological descriptions from the tags generated in step (2)
+3. Identifying the spans in the normal report template to replace with the generated pathologcal descriptions
+4. Replacing the identified span with the generated pathological description—improves the quality and accuracy
+of the radiology reports. C</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>12.Radiology report generation with a learned knowledge base and multi-modal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Main contributions:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, we propose CNN-TRG, a deep learning model that detects the presence or absence of abnormalities and then generates the report by relying on a set of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>predefined templates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, achieving better performance than state-of-the-art methods in terms of clinical correctness.
+We also design our model to be simpler and more transparent than the typical encoder-decoder approaches, allowing more control in terms of interpretation. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Second</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, we provide evidence that some traditional NLP metrics are not suitable for evaluating this task by showing they are not robust to textual changes in the reports. Thus, we show that our model can improve its performance in these metrics without affecting clinical correctness.</t>
+    </r>
+  </si>
+  <si>
+    <t>Page 7 VIP to take about the problem he is saying that nlp metrics are wrong :D</t>
+  </si>
+  <si>
+    <t>Very Simple :D</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Metirc</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A classifier that reads chest X-ray images and clinical history to produce an internal checklist of disease-related topics
+2. A transformer-based generator to generate fluent text
+3. An interpreter to examine and fine-tune the generated text to be consistent with the disease-related topics. 
+Use CNN-RNN first then reinforcement learning to inhance the text in interpreter </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RG-L</t>
+  </si>
+  <si>
+    <t>MIMIC_CXR</t>
+  </si>
+  <si>
+    <t>Highly Recommneded</t>
+  </si>
+  <si>
+    <t>Hosny</t>
+  </si>
+  <si>
+    <t>4.Automated Generation of Accurate &amp; Fluent Medical X-ray Reports.pdf</t>
+  </si>
+  <si>
+    <t>5. Generating Radiology Reports via Memory-driven Transformer.pdf</t>
+  </si>
+  <si>
+    <t>1. the visual extractor
+2. the encoder
+3. the decoder, where the proposed memory and the integration of the memory into Transformer are mainly performed in the decoder</t>
+  </si>
+  <si>
+    <t>generate large text but it's end to end</t>
+  </si>
+  <si>
+    <t>RG-L</t>
+  </si>
+  <si>
+    <t>0.MedICaT.pdf</t>
+  </si>
+  <si>
+    <t>Doc_understanding</t>
+  </si>
+  <si>
+    <t>Docment undersating of the medical images in paper with there captions and inline refernces</t>
+  </si>
+  <si>
+    <t>For Medical Images retreival based on captions with annotaions</t>
+  </si>
+  <si>
+    <t>in this thesis, we experiment with medical image tagging and text generation tasks, with the ultimate goal of helping physicians who need to generate reports from medical images</t>
+  </si>
+  <si>
+    <t>1.kougia_msc_thesis.pdf</t>
+  </si>
+  <si>
+    <t>Image_tagging</t>
+  </si>
+  <si>
+    <t>PHD+Pretrained</t>
+  </si>
+  <si>
+    <t>2.On the Automatic Generation of Medical Imaging Reports.pdf</t>
+  </si>
+  <si>
+    <t>13.Writing by Memorizing Hierarchical Retrieval-based Medical Report.pdf</t>
+  </si>
+  <si>
+    <t>14.Improving Medical X-ray Report Generation by Using Knowledge Grap.pdf</t>
+  </si>
+  <si>
+    <t>3. Sabryyyy Oother</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.CNN Densenet-121  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pretrained
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Text Generation, we manually curated a set of two sentences per ab_x0002_normality indicating presence and absence, totaling 26 sentences</t>
+    </r>
+  </si>
+  <si>
+    <t>ROUGE-L
+BLEU-1</t>
+  </si>
+  <si>
+    <t>0.492
+0.513</t>
+  </si>
+  <si>
+    <t>Mimic-CXR
+IU X-Ray</t>
+  </si>
+  <si>
+    <t>BLEU-1
+Refer to figure 3 p. 6</t>
+  </si>
+  <si>
+    <t>Mimic-CXR
+Open-I</t>
+  </si>
+  <si>
+    <t>IU X-RAY
+Mimic-CXR</t>
+  </si>
+  <si>
+    <t>leu-1
+Rouge-L
+leu-1
+Rouge-L</t>
+  </si>
+  <si>
+    <t>0.775
+0.817
+0.833
+0.833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IU X-RAY
+Mimic-CXR
+</t>
+  </si>
+  <si>
+    <t>stanford</t>
+  </si>
+  <si>
+    <t>reasoning</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +562,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -51,14 +648,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -72,6 +917,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>213533</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406279</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>850900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F120C6-DB98-A92E-35F3-21514F30C3EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11694333" y="3136900"/>
+          <a:ext cx="1426715" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,14 +1231,1306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:N248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="11" width="8.7265625" style="6"/>
+    <col min="12" max="12" width="25.36328125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:14" ht="212" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="212" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="8" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" s="8" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" ht="212" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0.39</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="32">
+        <v>5</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="33">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="32"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" spans="1:14" ht="215" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>8</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="27">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="233" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>9</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>10</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="119.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>11</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>12</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>13</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="1:13" s="8" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>14</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B131" s="5"/>
+    </row>
+    <row r="132" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B132" s="5"/>
+    </row>
+    <row r="133" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B139" s="5"/>
+    </row>
+    <row r="140" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B141" s="5"/>
+    </row>
+    <row r="142" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B147" s="5"/>
+    </row>
+    <row r="148" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B151" s="5"/>
+    </row>
+    <row r="152" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B152" s="5"/>
+    </row>
+    <row r="153" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B155" s="5"/>
+    </row>
+    <row r="156" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B157" s="5"/>
+    </row>
+    <row r="158" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B158" s="5"/>
+    </row>
+    <row r="159" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B162" s="5"/>
+    </row>
+    <row r="163" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B163" s="5"/>
+    </row>
+    <row r="164" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B164" s="5"/>
+    </row>
+    <row r="165" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B166" s="5"/>
+    </row>
+    <row r="167" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B167" s="5"/>
+    </row>
+    <row r="168" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B168" s="5"/>
+    </row>
+    <row r="169" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B169" s="5"/>
+    </row>
+    <row r="170" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B170" s="5"/>
+    </row>
+    <row r="171" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B172" s="5"/>
+    </row>
+    <row r="173" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B173" s="5"/>
+    </row>
+    <row r="174" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B174" s="5"/>
+    </row>
+    <row r="175" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B175" s="5"/>
+    </row>
+    <row r="176" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B176" s="5"/>
+    </row>
+    <row r="177" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B177" s="5"/>
+    </row>
+    <row r="178" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B178" s="5"/>
+    </row>
+    <row r="179" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B179" s="5"/>
+    </row>
+    <row r="180" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B180" s="5"/>
+    </row>
+    <row r="181" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B181" s="5"/>
+    </row>
+    <row r="182" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B182" s="5"/>
+    </row>
+    <row r="183" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B183" s="5"/>
+    </row>
+    <row r="184" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B184" s="5"/>
+    </row>
+    <row r="185" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B185" s="5"/>
+    </row>
+    <row r="186" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B186" s="5"/>
+    </row>
+    <row r="187" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B187" s="5"/>
+    </row>
+    <row r="188" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B188" s="5"/>
+    </row>
+    <row r="189" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B189" s="5"/>
+    </row>
+    <row r="190" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B190" s="5"/>
+    </row>
+    <row r="191" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B191" s="5"/>
+    </row>
+    <row r="192" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B192" s="5"/>
+    </row>
+    <row r="193" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B193" s="5"/>
+    </row>
+    <row r="194" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B194" s="5"/>
+    </row>
+    <row r="195" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B195" s="5"/>
+    </row>
+    <row r="196" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B196" s="5"/>
+    </row>
+    <row r="197" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B197" s="5"/>
+    </row>
+    <row r="198" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B198" s="5"/>
+    </row>
+    <row r="199" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B199" s="5"/>
+    </row>
+    <row r="200" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B200" s="5"/>
+    </row>
+    <row r="201" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B201" s="5"/>
+    </row>
+    <row r="202" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B202" s="5"/>
+    </row>
+    <row r="203" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B203" s="5"/>
+    </row>
+    <row r="204" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B204" s="5"/>
+    </row>
+    <row r="205" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B205" s="5"/>
+    </row>
+    <row r="206" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B206" s="5"/>
+    </row>
+    <row r="207" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B207" s="5"/>
+    </row>
+    <row r="208" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B208" s="5"/>
+    </row>
+    <row r="209" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B209" s="5"/>
+    </row>
+    <row r="210" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B210" s="5"/>
+    </row>
+    <row r="211" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B211" s="5"/>
+    </row>
+    <row r="212" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B212" s="5"/>
+    </row>
+    <row r="213" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B213" s="5"/>
+    </row>
+    <row r="214" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B214" s="5"/>
+    </row>
+    <row r="215" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B215" s="5"/>
+    </row>
+    <row r="216" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B216" s="5"/>
+    </row>
+    <row r="217" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B217" s="5"/>
+    </row>
+    <row r="218" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B218" s="5"/>
+    </row>
+    <row r="219" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B219" s="5"/>
+    </row>
+    <row r="220" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B220" s="5"/>
+    </row>
+    <row r="221" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B221" s="5"/>
+    </row>
+    <row r="222" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B222" s="5"/>
+    </row>
+    <row r="223" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B223" s="5"/>
+    </row>
+    <row r="224" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B224" s="5"/>
+    </row>
+    <row r="225" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B225" s="5"/>
+    </row>
+    <row r="226" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B226" s="5"/>
+    </row>
+    <row r="227" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B227" s="5"/>
+    </row>
+    <row r="228" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B228" s="5"/>
+    </row>
+    <row r="229" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B229" s="5"/>
+    </row>
+    <row r="230" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B230" s="5"/>
+    </row>
+    <row r="231" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B231" s="5"/>
+    </row>
+    <row r="232" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B232" s="5"/>
+    </row>
+    <row r="233" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B233" s="5"/>
+    </row>
+    <row r="234" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B234" s="5"/>
+    </row>
+    <row r="235" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B235" s="5"/>
+    </row>
+    <row r="236" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B236" s="5"/>
+    </row>
+    <row r="237" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B237" s="5"/>
+    </row>
+    <row r="238" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B238" s="5"/>
+    </row>
+    <row r="239" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B239" s="5"/>
+    </row>
+    <row r="240" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B240" s="5"/>
+    </row>
+    <row r="241" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B241" s="5"/>
+    </row>
+    <row r="242" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B242" s="5"/>
+    </row>
+    <row r="243" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B243" s="5"/>
+    </row>
+    <row r="244" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B244" s="5"/>
+    </row>
+    <row r="245" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B245" s="5"/>
+    </row>
+    <row r="246" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B246" s="5"/>
+    </row>
+    <row r="247" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B247" s="5"/>
+    </row>
+    <row r="248" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B248" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J14" r:id="rId1" xr:uid="{209E2D3F-FBF9-4789-8467-E739B81E79FB}"/>
+    <hyperlink ref="J15" r:id="rId2" xr:uid="{0DFF8ECA-94E2-4EE9-854F-511BA77BEECF}"/>
+    <hyperlink ref="K16" r:id="rId3" xr:uid="{56914262-1B41-4110-98F9-9114ACD8CF6D}"/>
+    <hyperlink ref="J16" r:id="rId4" xr:uid="{0720CF25-49CD-4F60-80AD-F447AFBA6CA8}"/>
+    <hyperlink ref="J18" r:id="rId5" xr:uid="{6FDBBE7F-9BB1-4BAA-B517-9019B7D73D15}"/>
+    <hyperlink ref="J19" r:id="rId6" xr:uid="{5F101B34-21E3-40CF-B2F5-27979A602E97}"/>
+    <hyperlink ref="J20" r:id="rId7" xr:uid="{239C4E27-416A-45C1-8CE9-571B5309A0B9}"/>
+    <hyperlink ref="J11" r:id="rId8" xr:uid="{CCC8FAF2-8350-4726-8D3D-A995CCA092A3}"/>
+    <hyperlink ref="K11" r:id="rId9" xr:uid="{9A79142E-E832-46DB-90F4-0B465790900D}"/>
+    <hyperlink ref="K13" r:id="rId10" xr:uid="{54BFA418-81C1-4AB1-B765-DC86287A97BB}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{05A0FFA5-2EDF-468E-B99F-11053627C8A2}"/>
+    <hyperlink ref="K12" r:id="rId12" xr:uid="{86F42BE0-5576-49A0-8F81-9379529D4DEA}"/>
+    <hyperlink ref="J7" r:id="rId13" location=":~:text=MedICaT%20consists%20of%20217K%20images,for%20a%20subset%20of%20figures." xr:uid="{B42AC12F-376F-4642-A095-835AF8112F31}"/>
+    <hyperlink ref="J8" r:id="rId14" xr:uid="{633E379D-D811-486C-9969-285E0A4EFCEE}"/>
+    <hyperlink ref="J9" r:id="rId15" xr:uid="{D6C3E849-95A9-4127-81BB-9534E33C1CA4}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{EBF94C04-A8B9-47DF-8F28-7D73527AF400}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/Papers/Papers.xlsx
+++ b/Papers/Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduation-Project\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18690C84-76C9-4C37-AA3F-D1A23F57538D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FAC97C-9A12-4C48-82C2-47DFD554E784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>6. IIHT: Medical Report Generation with
 Image-to-Indicator Hierarchical Transformer.pdf</t>
@@ -417,9 +417,6 @@
     <t>MIMIC_CXR</t>
   </si>
   <si>
-    <t>Highly Recommneded</t>
-  </si>
-  <si>
     <t>Hosny</t>
   </si>
   <si>
@@ -427,14 +424,6 @@
   </si>
   <si>
     <t>5. Generating Radiology Reports via Memory-driven Transformer.pdf</t>
-  </si>
-  <si>
-    <t>1. the visual extractor
-2. the encoder
-3. the decoder, where the proposed memory and the integration of the memory into Transformer are mainly performed in the decoder</t>
-  </si>
-  <si>
-    <t>generate large text but it's end to end</t>
   </si>
   <si>
     <t>RG-L</t>
@@ -548,6 +537,31 @@
   </si>
   <si>
     <t>reasoning</t>
+  </si>
+  <si>
+    <t>Highly Recommneded
+Good Architecture</t>
+  </si>
+  <si>
+    <t>1. the visual extractor (Pretrianed)
+2. the encoder
+3. the decoder, where the proposed memory and the integration of the memory into Transformer are mainly performed in the decoder</t>
+  </si>
+  <si>
+    <t>generate large text but it's end to end
+Memory [Decoder larger history]</t>
+  </si>
+  <si>
+    <t>Hosy</t>
+  </si>
+  <si>
+    <t>CNN+RNN + Reniformect learning Learning</t>
+  </si>
+  <si>
+    <t>15.Clinically Accurate Chest X-Ray Report Generation.pdf</t>
+  </si>
+  <si>
+    <t>multi_model</t>
   </si>
 </sst>
 </file>
@@ -853,53 +867,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1234,8 +1248,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1257,73 +1271,77 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>84</v>
+      <c r="C2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="46" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="37" t="s">
         <v>38</v>
       </c>
+      <c r="F3" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="7" t="s">
         <v>49</v>
       </c>
@@ -1333,23 +1351,23 @@
       <c r="I6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:14" ht="212" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
@@ -1361,7 +1379,7 @@
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>13</v>
@@ -1372,13 +1390,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
@@ -1390,7 +1408,7 @@
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>13</v>
@@ -1401,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
@@ -1422,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
@@ -1441,9 +1459,11 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="26" t="s">
         <v>52</v>
@@ -1465,63 +1485,63 @@
         <v>5</v>
       </c>
       <c r="L11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="12" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32">
+      <c r="A12" s="41">
         <v>5</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>58</v>
+      <c r="B12" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="36" t="s">
-        <v>59</v>
+      <c r="E12" s="45" t="s">
+        <v>84</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="33">
+      <c r="H12" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="46">
         <v>0.27700000000000002</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="44" t="s">
         <v>4</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>56</v>
+      <c r="L12" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="36"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="35"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="44"/>
       <c r="K13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
     </row>
     <row r="14" spans="1:14" ht="215" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
@@ -1546,10 +1566,10 @@
         <v>8</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>4</v>
@@ -1581,9 +1601,9 @@
       <c r="F15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="30" t="s">
         <v>4</v>
       </c>
@@ -1613,10 +1633,10 @@
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I16" s="27">
         <v>37.299999999999997</v>
@@ -1655,7 +1675,7 @@
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" s="27" t="s">
         <v>33</v>
@@ -1717,13 +1737,13 @@
         <v>39</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J19" s="30" t="s">
         <v>4</v>
@@ -1748,13 +1768,13 @@
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H20" s="27" t="s">
         <v>45</v>
@@ -1776,7 +1796,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
@@ -1788,14 +1808,16 @@
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="31" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:13" s="8" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>14</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
@@ -1807,10 +1829,23 @@
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
       <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="5"/>
+      <c r="M22" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
@@ -2489,6 +2524,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="J5:J6"/>
@@ -2500,17 +2546,6 @@
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J14" r:id="rId1" xr:uid="{209E2D3F-FBF9-4789-8467-E739B81E79FB}"/>

--- a/Papers/Papers.xlsx
+++ b/Papers/Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduation-Project\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FAC97C-9A12-4C48-82C2-47DFD554E784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66FC46-2BC5-4C7D-AD32-406B972A80D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>6. IIHT: Medical Report Generation with
 Image-to-Indicator Hierarchical Transformer.pdf</t>
@@ -248,51 +248,6 @@
   </si>
   <si>
     <t>template-based approach</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Problem with others</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> that if at least one organ is abnormal, the report is classified as abnormal, but it still contains more normal sentences than abnormal. As a result, existing text generation models may be overly focused on widely reported normal findings. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Their sol </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hence, we propose an approach to generating radiology re_x0002_ports by generating pathological descriptions, i.e., descriptions of abnormal findings, and then replacing corresponding normal descriptions from the normal report template with a generated pathological description.</t>
-    </r>
   </si>
   <si>
     <t>1. Image tagger
@@ -465,6 +420,123 @@
     <t>3. Sabryyyy Oother</t>
   </si>
   <si>
+    <t>ROUGE-L
+BLEU-1</t>
+  </si>
+  <si>
+    <t>0.492
+0.513</t>
+  </si>
+  <si>
+    <t>Mimic-CXR
+IU X-Ray</t>
+  </si>
+  <si>
+    <t>BLEU-1
+Refer to figure 3 p. 6</t>
+  </si>
+  <si>
+    <t>Mimic-CXR
+Open-I</t>
+  </si>
+  <si>
+    <t>IU X-RAY
+Mimic-CXR</t>
+  </si>
+  <si>
+    <t>leu-1
+Rouge-L
+leu-1
+Rouge-L</t>
+  </si>
+  <si>
+    <t>0.775
+0.817
+0.833
+0.833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IU X-RAY
+Mimic-CXR
+</t>
+  </si>
+  <si>
+    <t>stanford</t>
+  </si>
+  <si>
+    <t>reasoning</t>
+  </si>
+  <si>
+    <t>Highly Recommneded
+Good Architecture</t>
+  </si>
+  <si>
+    <t>1. the visual extractor (Pretrianed)
+2. the encoder
+3. the decoder, where the proposed memory and the integration of the memory into Transformer are mainly performed in the decoder</t>
+  </si>
+  <si>
+    <t>generate large text but it's end to end
+Memory [Decoder larger history]</t>
+  </si>
+  <si>
+    <t>Hosy</t>
+  </si>
+  <si>
+    <t>CNN+RNN + Reniformect learning Learning</t>
+  </si>
+  <si>
+    <t>15.Clinically Accurate Chest X-Ray Report Generation.pdf</t>
+  </si>
+  <si>
+    <t>multi_model</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Problem with others</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that if at least one organ is abnormal, the report is classified as abnormal, but it still contains more normal sentences than abnormal. As a result, existing text generation models may be overly focused on widely reported normal findings. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Their sol </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hence, we propose an approach to generating radiology reports by generating pathological descriptions, i.e., descriptions of abnormal findings, and then replacing corresponding normal descriptions from the normal report template with a generated pathological description.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1.CNN Densenet-121  </t>
     </r>
@@ -488,80 +560,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2. Text Generation, we manually curated a set of two sentences per ab_x0002_normality indicating presence and absence, totaling 26 sentences</t>
+      <t>2. Text Generation, we manually curated a set of two sentences per abnormality indicating presence and absence, totaling 26 sentences</t>
     </r>
   </si>
   <si>
-    <t>ROUGE-L
-BLEU-1</t>
-  </si>
-  <si>
-    <t>0.492
-0.513</t>
-  </si>
-  <si>
-    <t>Mimic-CXR
-IU X-Ray</t>
-  </si>
-  <si>
-    <t>BLEU-1
-Refer to figure 3 p. 6</t>
-  </si>
-  <si>
-    <t>Mimic-CXR
-Open-I</t>
-  </si>
-  <si>
-    <t>IU X-RAY
-Mimic-CXR</t>
-  </si>
-  <si>
-    <t>leu-1
-Rouge-L
-leu-1
-Rouge-L</t>
-  </si>
-  <si>
-    <t>0.775
-0.817
-0.833
-0.833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IU X-RAY
-Mimic-CXR
-</t>
-  </si>
-  <si>
-    <t>stanford</t>
-  </si>
-  <si>
-    <t>reasoning</t>
-  </si>
-  <si>
-    <t>Highly Recommneded
-Good Architecture</t>
-  </si>
-  <si>
-    <t>1. the visual extractor (Pretrianed)
-2. the encoder
-3. the decoder, where the proposed memory and the integration of the memory into Transformer are mainly performed in the decoder</t>
-  </si>
-  <si>
-    <t>generate large text but it's end to end
-Memory [Decoder larger history]</t>
-  </si>
-  <si>
-    <t>Hosy</t>
-  </si>
-  <si>
-    <t>CNN+RNN + Reniformect learning Learning</t>
-  </si>
-  <si>
-    <t>15.Clinically Accurate Chest X-Ray Report Generation.pdf</t>
-  </si>
-  <si>
-    <t>multi_model</t>
+    <t>Reread to understand</t>
+  </si>
+  <si>
+    <t>Top</t>
   </si>
 </sst>
 </file>
@@ -628,7 +634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,6 +659,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -772,7 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -885,6 +903,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -894,26 +924,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1248,8 +1275,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="61" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1270,27 +1297,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
-        <v>48</v>
+    <row r="2" spans="1:14" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>15</v>
@@ -1299,75 +1329,78 @@
         <v>38</v>
       </c>
       <c r="F3" s="37"/>
+      <c r="L3" s="48" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="D5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:14" ht="212" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>0</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
@@ -1379,7 +1412,7 @@
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>13</v>
@@ -1390,13 +1423,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
@@ -1408,18 +1441,18 @@
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="A9" s="50">
         <v>2</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>67</v>
+      <c r="B9" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
@@ -1436,11 +1469,11 @@
       <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:14" s="8" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="A10" s="50">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>70</v>
+      <c r="B10" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
@@ -1455,25 +1488,25 @@
       <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:14" ht="212" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="A11" s="48">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="27">
         <v>0.39</v>
@@ -1485,66 +1518,66 @@
         <v>5</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41">
+      <c r="A12" s="38">
         <v>5</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>57</v>
+      <c r="B12" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="45" t="s">
-        <v>84</v>
+      <c r="E12" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="46">
+      <c r="G12" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="39">
         <v>0.27700000000000002</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="46" t="s">
         <v>4</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>55</v>
+      <c r="L12" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="41" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="45"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="44"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="46"/>
       <c r="K13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="43"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="41"/>
     </row>
     <row r="14" spans="1:14" ht="215" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="A14" s="48">
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -1566,10 +1599,10 @@
         <v>8</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>4</v>
@@ -1583,7 +1616,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="A15" s="50">
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1601,9 +1634,9 @@
       <c r="F15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="30" t="s">
         <v>4</v>
       </c>
@@ -1616,7 +1649,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+      <c r="A16" s="48">
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1633,10 +1666,10 @@
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I16" s="27">
         <v>37.299999999999997</v>
@@ -1658,7 +1691,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="233" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
+      <c r="A17" s="50">
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1675,7 +1708,7 @@
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H17" s="27" t="s">
         <v>33</v>
@@ -1717,8 +1750,8 @@
       <c r="L18" s="24"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="119.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="48">
         <v>11</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1728,29 +1761,29 @@
         <v>38</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J19" s="30" t="s">
         <v>4</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M19" s="31" t="s">
         <v>13</v>
@@ -1761,23 +1794,23 @@
         <v>12</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="16" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>44</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>45</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="30" t="s">
@@ -1785,7 +1818,7 @@
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M20" s="31" t="s">
         <v>13</v>
@@ -1796,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
@@ -1817,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
@@ -1834,17 +1867,26 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23" s="48">
         <v>15</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
@@ -2524,6 +2566,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="H12:H13"/>
@@ -2535,17 +2588,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J14" r:id="rId1" xr:uid="{209E2D3F-FBF9-4789-8467-E739B81E79FB}"/>

--- a/Papers/Papers.xlsx
+++ b/Papers/Papers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Graduation-Project\Papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engah\Downloads\GP\Graduation-Project\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66FC46-2BC5-4C7D-AD32-406B972A80D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0244211-61BA-49BF-A23A-E79BFFE8D772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
   <si>
     <t>6. IIHT: Medical Report Generation with
 Image-to-Indicator Hierarchical Transformer.pdf</t>
@@ -480,9 +480,6 @@
 Memory [Decoder larger history]</t>
   </si>
   <si>
-    <t>Hosy</t>
-  </si>
-  <si>
     <t>CNN+RNN + Reniformect learning Learning</t>
   </si>
   <si>
@@ -568,6 +565,15 @@
   </si>
   <si>
     <t>Top</t>
+  </si>
+  <si>
+    <t>MIMIC-CXR</t>
+  </si>
+  <si>
+    <t>Our model can be partitioned into three major com_x0002_ponents, i.e., the visual extractor, the encoder and the decoder, where the proposed memory and the integration of the memory into Transformer are mainly performed in the decoder.</t>
+  </si>
+  <si>
+    <t>template-based approach use rainforcment learning to make text more redable and use RNN-CNN to genrate report</t>
   </si>
 </sst>
 </file>
@@ -790,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -801,9 +807,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -819,65 +822,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -903,36 +864,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -940,6 +871,48 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1275,315 +1248,324 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="61" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="61" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="11" width="8.7265625" style="6"/>
-    <col min="12" max="12" width="25.36328125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="1"/>
+    <col min="10" max="11" width="8.77734375" style="5"/>
+    <col min="12" max="12" width="25.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:14" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="49" t="s">
+      <c r="F2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="30"/>
+      <c r="C3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="L3" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="43"/>
-      <c r="C3" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="L3" s="48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="7" t="s">
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:14" ht="212" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="211.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="212" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="211.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="8" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50">
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" s="7" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" spans="1:14" s="8" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50">
+      <c r="K9" s="12"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14" s="7" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:14" ht="212" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48">
+      <c r="C10" s="11"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14" ht="211.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="26" t="s">
+      <c r="C11" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="27" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="14">
         <v>0.39</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="10" t="s">
         <v>5</v>
       </c>
       <c r="L11" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38">
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
         <v>5</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="47" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="39" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="27">
         <v>0.27700000000000002</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="45" t="s">
+      <c r="L12" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="15" t="s">
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="41"/>
-    </row>
-    <row r="14" spans="1:14" ht="215" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="48">
+      <c r="L13" s="34"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="214.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -1595,109 +1577,111 @@
       <c r="F14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50">
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="87.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="30" t="s">
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="35"/>
       <c r="L15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="48">
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
         <v>8</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="27" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="14">
         <v>37.299999999999997</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="15" t="s">
         <v>5</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="233" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50">
+    <row r="17" spans="1:14" ht="262.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
         <v>9</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="16" t="s">
@@ -1706,58 +1690,60 @@
       <c r="E17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="27" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="30" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="15" t="s">
         <v>34</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="31" t="s">
+      <c r="M17" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>10</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="48">
+      <c r="K18" s="12"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="38"/>
+    </row>
+    <row r="19" spans="1:14" s="3" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
         <v>11</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="16" t="s">
@@ -1767,802 +1753,823 @@
         <v>39</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K19" s="12"/>
+      <c r="K19" s="35"/>
       <c r="L19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="31" t="s">
+      <c r="M19" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="171" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>12</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="30" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="12"/>
+      <c r="K20" s="35"/>
       <c r="L20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="31" t="s">
+      <c r="M20" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" s="8" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" s="7" customFormat="1" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>13</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="31" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" s="8" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="1:14" s="7" customFormat="1" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>14</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="31" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="48">
+      <c r="N22" s="38"/>
+    </row>
+    <row r="23" spans="1:14" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
         <v>15</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="6" t="s">
+      <c r="B23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="J23" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" s="6" t="s">
+      <c r="L23" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="5"/>
-    </row>
-    <row r="65" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="5"/>
-    </row>
-    <row r="67" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B67" s="5"/>
-    </row>
-    <row r="68" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B68" s="5"/>
-    </row>
-    <row r="69" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B69" s="5"/>
-    </row>
-    <row r="70" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B70" s="5"/>
-    </row>
-    <row r="71" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B72" s="5"/>
-    </row>
-    <row r="73" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B73" s="5"/>
-    </row>
-    <row r="74" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B74" s="5"/>
-    </row>
-    <row r="75" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B75" s="5"/>
-    </row>
-    <row r="76" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B76" s="5"/>
-    </row>
-    <row r="77" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B77" s="5"/>
-    </row>
-    <row r="78" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B79" s="5"/>
-    </row>
-    <row r="80" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B80" s="5"/>
-    </row>
-    <row r="81" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B81" s="5"/>
-    </row>
-    <row r="82" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B82" s="5"/>
-    </row>
-    <row r="83" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B83" s="5"/>
-    </row>
-    <row r="84" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B84" s="5"/>
-    </row>
-    <row r="85" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B85" s="5"/>
-    </row>
-    <row r="86" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B86" s="5"/>
-    </row>
-    <row r="87" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B87" s="5"/>
-    </row>
-    <row r="88" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B88" s="5"/>
-    </row>
-    <row r="89" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="5"/>
-    </row>
-    <row r="90" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B90" s="5"/>
-    </row>
-    <row r="91" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B91" s="5"/>
-    </row>
-    <row r="92" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B92" s="5"/>
-    </row>
-    <row r="93" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B93" s="5"/>
-    </row>
-    <row r="94" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B94" s="5"/>
-    </row>
-    <row r="95" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B95" s="5"/>
-    </row>
-    <row r="96" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B96" s="5"/>
-    </row>
-    <row r="97" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B97" s="5"/>
-    </row>
-    <row r="98" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B98" s="5"/>
-    </row>
-    <row r="99" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B99" s="5"/>
-    </row>
-    <row r="100" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B100" s="5"/>
-    </row>
-    <row r="101" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B101" s="5"/>
-    </row>
-    <row r="102" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B102" s="5"/>
-    </row>
-    <row r="103" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B103" s="5"/>
-    </row>
-    <row r="104" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B104" s="5"/>
-    </row>
-    <row r="105" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="5"/>
-    </row>
-    <row r="106" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B106" s="5"/>
-    </row>
-    <row r="107" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="5"/>
-    </row>
-    <row r="108" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="5"/>
-    </row>
-    <row r="109" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="5"/>
-    </row>
-    <row r="110" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B110" s="5"/>
-    </row>
-    <row r="111" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B111" s="5"/>
-    </row>
-    <row r="112" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B112" s="5"/>
-    </row>
-    <row r="113" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B113" s="5"/>
-    </row>
-    <row r="114" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B114" s="5"/>
-    </row>
-    <row r="115" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B115" s="5"/>
-    </row>
-    <row r="116" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B116" s="5"/>
-    </row>
-    <row r="117" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B117" s="5"/>
-    </row>
-    <row r="118" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B118" s="5"/>
-    </row>
-    <row r="119" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B119" s="5"/>
-    </row>
-    <row r="120" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B120" s="5"/>
-    </row>
-    <row r="121" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B121" s="5"/>
-    </row>
-    <row r="122" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B122" s="5"/>
-    </row>
-    <row r="123" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B123" s="5"/>
-    </row>
-    <row r="124" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B124" s="5"/>
-    </row>
-    <row r="125" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B125" s="5"/>
-    </row>
-    <row r="126" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B126" s="5"/>
-    </row>
-    <row r="127" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B127" s="5"/>
-    </row>
-    <row r="128" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B128" s="5"/>
-    </row>
-    <row r="129" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B129" s="5"/>
-    </row>
-    <row r="130" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B130" s="5"/>
-    </row>
-    <row r="131" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B131" s="5"/>
-    </row>
-    <row r="132" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B132" s="5"/>
-    </row>
-    <row r="133" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B133" s="5"/>
-    </row>
-    <row r="134" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B134" s="5"/>
-    </row>
-    <row r="135" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B135" s="5"/>
-    </row>
-    <row r="136" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B136" s="5"/>
-    </row>
-    <row r="137" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B137" s="5"/>
-    </row>
-    <row r="138" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B138" s="5"/>
-    </row>
-    <row r="139" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B139" s="5"/>
-    </row>
-    <row r="140" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B140" s="5"/>
-    </row>
-    <row r="141" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B141" s="5"/>
-    </row>
-    <row r="142" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B142" s="5"/>
-    </row>
-    <row r="143" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B143" s="5"/>
-    </row>
-    <row r="144" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B144" s="5"/>
-    </row>
-    <row r="145" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B145" s="5"/>
-    </row>
-    <row r="146" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B146" s="5"/>
-    </row>
-    <row r="147" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B147" s="5"/>
-    </row>
-    <row r="148" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B148" s="5"/>
-    </row>
-    <row r="149" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B149" s="5"/>
-    </row>
-    <row r="150" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B150" s="5"/>
-    </row>
-    <row r="151" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B151" s="5"/>
-    </row>
-    <row r="152" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B152" s="5"/>
-    </row>
-    <row r="153" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B153" s="5"/>
-    </row>
-    <row r="154" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B154" s="5"/>
-    </row>
-    <row r="155" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B155" s="5"/>
-    </row>
-    <row r="156" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B156" s="5"/>
-    </row>
-    <row r="157" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B157" s="5"/>
-    </row>
-    <row r="158" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B158" s="5"/>
-    </row>
-    <row r="159" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B159" s="5"/>
-    </row>
-    <row r="160" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B160" s="5"/>
-    </row>
-    <row r="161" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B161" s="5"/>
-    </row>
-    <row r="162" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B162" s="5"/>
-    </row>
-    <row r="163" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B163" s="5"/>
-    </row>
-    <row r="164" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B164" s="5"/>
-    </row>
-    <row r="165" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B165" s="5"/>
-    </row>
-    <row r="166" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B166" s="5"/>
-    </row>
-    <row r="167" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B167" s="5"/>
-    </row>
-    <row r="168" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B168" s="5"/>
-    </row>
-    <row r="169" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B169" s="5"/>
-    </row>
-    <row r="170" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B170" s="5"/>
-    </row>
-    <row r="171" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B171" s="5"/>
-    </row>
-    <row r="172" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B172" s="5"/>
-    </row>
-    <row r="173" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B173" s="5"/>
-    </row>
-    <row r="174" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B174" s="5"/>
-    </row>
-    <row r="175" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B175" s="5"/>
-    </row>
-    <row r="176" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B176" s="5"/>
-    </row>
-    <row r="177" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B177" s="5"/>
-    </row>
-    <row r="178" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B178" s="5"/>
-    </row>
-    <row r="179" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B179" s="5"/>
-    </row>
-    <row r="180" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B180" s="5"/>
-    </row>
-    <row r="181" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B181" s="5"/>
-    </row>
-    <row r="182" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B182" s="5"/>
-    </row>
-    <row r="183" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B183" s="5"/>
-    </row>
-    <row r="184" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B184" s="5"/>
-    </row>
-    <row r="185" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B185" s="5"/>
-    </row>
-    <row r="186" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B186" s="5"/>
-    </row>
-    <row r="187" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B187" s="5"/>
-    </row>
-    <row r="188" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B188" s="5"/>
-    </row>
-    <row r="189" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B189" s="5"/>
-    </row>
-    <row r="190" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B190" s="5"/>
-    </row>
-    <row r="191" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B191" s="5"/>
-    </row>
-    <row r="192" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B192" s="5"/>
-    </row>
-    <row r="193" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B193" s="5"/>
-    </row>
-    <row r="194" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B194" s="5"/>
-    </row>
-    <row r="195" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B195" s="5"/>
-    </row>
-    <row r="196" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B196" s="5"/>
-    </row>
-    <row r="197" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B197" s="5"/>
-    </row>
-    <row r="198" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B198" s="5"/>
-    </row>
-    <row r="199" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B199" s="5"/>
-    </row>
-    <row r="200" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B200" s="5"/>
-    </row>
-    <row r="201" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B201" s="5"/>
-    </row>
-    <row r="202" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B202" s="5"/>
-    </row>
-    <row r="203" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B203" s="5"/>
-    </row>
-    <row r="204" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B204" s="5"/>
-    </row>
-    <row r="205" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B205" s="5"/>
-    </row>
-    <row r="206" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B206" s="5"/>
-    </row>
-    <row r="207" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B207" s="5"/>
-    </row>
-    <row r="208" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B208" s="5"/>
-    </row>
-    <row r="209" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B209" s="5"/>
-    </row>
-    <row r="210" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B210" s="5"/>
-    </row>
-    <row r="211" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B211" s="5"/>
-    </row>
-    <row r="212" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B212" s="5"/>
-    </row>
-    <row r="213" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B213" s="5"/>
-    </row>
-    <row r="214" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B214" s="5"/>
-    </row>
-    <row r="215" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B215" s="5"/>
-    </row>
-    <row r="216" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B216" s="5"/>
-    </row>
-    <row r="217" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B217" s="5"/>
-    </row>
-    <row r="218" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B218" s="5"/>
-    </row>
-    <row r="219" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B219" s="5"/>
-    </row>
-    <row r="220" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B220" s="5"/>
-    </row>
-    <row r="221" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B221" s="5"/>
-    </row>
-    <row r="222" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B222" s="5"/>
-    </row>
-    <row r="223" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B223" s="5"/>
-    </row>
-    <row r="224" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B224" s="5"/>
-    </row>
-    <row r="225" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B225" s="5"/>
-    </row>
-    <row r="226" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B226" s="5"/>
-    </row>
-    <row r="227" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B227" s="5"/>
-    </row>
-    <row r="228" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B228" s="5"/>
-    </row>
-    <row r="229" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B229" s="5"/>
-    </row>
-    <row r="230" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B230" s="5"/>
-    </row>
-    <row r="231" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B231" s="5"/>
-    </row>
-    <row r="232" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B232" s="5"/>
-    </row>
-    <row r="233" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B233" s="5"/>
-    </row>
-    <row r="234" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B234" s="5"/>
-    </row>
-    <row r="235" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B235" s="5"/>
-    </row>
-    <row r="236" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B236" s="5"/>
-    </row>
-    <row r="237" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B237" s="5"/>
-    </row>
-    <row r="238" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B238" s="5"/>
-    </row>
-    <row r="239" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B239" s="5"/>
-    </row>
-    <row r="240" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B240" s="5"/>
-    </row>
-    <row r="241" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B241" s="5"/>
-    </row>
-    <row r="242" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B242" s="5"/>
-    </row>
-    <row r="243" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B243" s="5"/>
-    </row>
-    <row r="244" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B244" s="5"/>
-    </row>
-    <row r="245" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B245" s="5"/>
-    </row>
-    <row r="246" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B246" s="5"/>
-    </row>
-    <row r="247" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B247" s="5"/>
-    </row>
-    <row r="248" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B248" s="5"/>
+      <c r="M23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B133" s="4"/>
+    </row>
+    <row r="134" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B134" s="4"/>
+    </row>
+    <row r="135" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B137" s="4"/>
+    </row>
+    <row r="138" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B138" s="4"/>
+    </row>
+    <row r="139" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B140" s="4"/>
+    </row>
+    <row r="141" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B141" s="4"/>
+    </row>
+    <row r="142" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B142" s="4"/>
+    </row>
+    <row r="143" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B143" s="4"/>
+    </row>
+    <row r="144" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B144" s="4"/>
+    </row>
+    <row r="145" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B145" s="4"/>
+    </row>
+    <row r="146" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B146" s="4"/>
+    </row>
+    <row r="147" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B147" s="4"/>
+    </row>
+    <row r="148" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B148" s="4"/>
+    </row>
+    <row r="149" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B149" s="4"/>
+    </row>
+    <row r="150" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B150" s="4"/>
+    </row>
+    <row r="151" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B151" s="4"/>
+    </row>
+    <row r="152" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B152" s="4"/>
+    </row>
+    <row r="153" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B153" s="4"/>
+    </row>
+    <row r="154" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B154" s="4"/>
+    </row>
+    <row r="155" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B155" s="4"/>
+    </row>
+    <row r="156" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B156" s="4"/>
+    </row>
+    <row r="157" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B157" s="4"/>
+    </row>
+    <row r="158" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B158" s="4"/>
+    </row>
+    <row r="159" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B159" s="4"/>
+    </row>
+    <row r="160" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B160" s="4"/>
+    </row>
+    <row r="161" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B161" s="4"/>
+    </row>
+    <row r="162" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B162" s="4"/>
+    </row>
+    <row r="163" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B163" s="4"/>
+    </row>
+    <row r="164" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B164" s="4"/>
+    </row>
+    <row r="165" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B165" s="4"/>
+    </row>
+    <row r="166" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B166" s="4"/>
+    </row>
+    <row r="167" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B167" s="4"/>
+    </row>
+    <row r="168" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B168" s="4"/>
+    </row>
+    <row r="169" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B169" s="4"/>
+    </row>
+    <row r="170" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B170" s="4"/>
+    </row>
+    <row r="171" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B171" s="4"/>
+    </row>
+    <row r="172" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B172" s="4"/>
+    </row>
+    <row r="173" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B173" s="4"/>
+    </row>
+    <row r="174" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B174" s="4"/>
+    </row>
+    <row r="175" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B175" s="4"/>
+    </row>
+    <row r="176" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B176" s="4"/>
+    </row>
+    <row r="177" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B177" s="4"/>
+    </row>
+    <row r="178" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B178" s="4"/>
+    </row>
+    <row r="179" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B179" s="4"/>
+    </row>
+    <row r="180" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B180" s="4"/>
+    </row>
+    <row r="181" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B181" s="4"/>
+    </row>
+    <row r="182" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B182" s="4"/>
+    </row>
+    <row r="183" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B183" s="4"/>
+    </row>
+    <row r="184" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B184" s="4"/>
+    </row>
+    <row r="185" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B185" s="4"/>
+    </row>
+    <row r="186" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B186" s="4"/>
+    </row>
+    <row r="187" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B187" s="4"/>
+    </row>
+    <row r="188" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B188" s="4"/>
+    </row>
+    <row r="189" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B189" s="4"/>
+    </row>
+    <row r="190" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B190" s="4"/>
+    </row>
+    <row r="191" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B191" s="4"/>
+    </row>
+    <row r="192" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B192" s="4"/>
+    </row>
+    <row r="193" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B193" s="4"/>
+    </row>
+    <row r="194" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B194" s="4"/>
+    </row>
+    <row r="195" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B195" s="4"/>
+    </row>
+    <row r="196" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B196" s="4"/>
+    </row>
+    <row r="197" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B197" s="4"/>
+    </row>
+    <row r="198" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B198" s="4"/>
+    </row>
+    <row r="199" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B199" s="4"/>
+    </row>
+    <row r="200" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B200" s="4"/>
+    </row>
+    <row r="201" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B201" s="4"/>
+    </row>
+    <row r="202" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B202" s="4"/>
+    </row>
+    <row r="203" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B203" s="4"/>
+    </row>
+    <row r="204" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B204" s="4"/>
+    </row>
+    <row r="205" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B205" s="4"/>
+    </row>
+    <row r="206" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B206" s="4"/>
+    </row>
+    <row r="207" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B207" s="4"/>
+    </row>
+    <row r="208" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B208" s="4"/>
+    </row>
+    <row r="209" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B209" s="4"/>
+    </row>
+    <row r="210" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B210" s="4"/>
+    </row>
+    <row r="211" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B211" s="4"/>
+    </row>
+    <row r="212" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B212" s="4"/>
+    </row>
+    <row r="213" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B213" s="4"/>
+    </row>
+    <row r="214" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B214" s="4"/>
+    </row>
+    <row r="215" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B215" s="4"/>
+    </row>
+    <row r="216" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B216" s="4"/>
+    </row>
+    <row r="217" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B217" s="4"/>
+    </row>
+    <row r="218" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B218" s="4"/>
+    </row>
+    <row r="219" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B219" s="4"/>
+    </row>
+    <row r="220" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B220" s="4"/>
+    </row>
+    <row r="221" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B221" s="4"/>
+    </row>
+    <row r="222" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B222" s="4"/>
+    </row>
+    <row r="223" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B223" s="4"/>
+    </row>
+    <row r="224" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B224" s="4"/>
+    </row>
+    <row r="225" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B225" s="4"/>
+    </row>
+    <row r="226" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B226" s="4"/>
+    </row>
+    <row r="227" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B227" s="4"/>
+    </row>
+    <row r="228" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B228" s="4"/>
+    </row>
+    <row r="229" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B229" s="4"/>
+    </row>
+    <row r="230" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B230" s="4"/>
+    </row>
+    <row r="231" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B231" s="4"/>
+    </row>
+    <row r="232" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B232" s="4"/>
+    </row>
+    <row r="233" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B233" s="4"/>
+    </row>
+    <row r="234" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B234" s="4"/>
+    </row>
+    <row r="235" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B235" s="4"/>
+    </row>
+    <row r="236" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B236" s="4"/>
+    </row>
+    <row r="237" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B237" s="4"/>
+    </row>
+    <row r="238" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B238" s="4"/>
+    </row>
+    <row r="239" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B239" s="4"/>
+    </row>
+    <row r="240" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B240" s="4"/>
+    </row>
+    <row r="241" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B241" s="4"/>
+    </row>
+    <row r="242" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B242" s="4"/>
+    </row>
+    <row r="243" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B243" s="4"/>
+    </row>
+    <row r="244" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B244" s="4"/>
+    </row>
+    <row r="245" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B245" s="4"/>
+    </row>
+    <row r="246" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B246" s="4"/>
+    </row>
+    <row r="247" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B247" s="4"/>
+    </row>
+    <row r="248" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B248" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2606,8 +2613,10 @@
     <hyperlink ref="J8" r:id="rId14" xr:uid="{633E379D-D811-486C-9969-285E0A4EFCEE}"/>
     <hyperlink ref="J9" r:id="rId15" xr:uid="{D6C3E849-95A9-4127-81BB-9534E33C1CA4}"/>
     <hyperlink ref="K17" r:id="rId16" xr:uid="{EBF94C04-A8B9-47DF-8F28-7D73527AF400}"/>
+    <hyperlink ref="J23" r:id="rId17" xr:uid="{2360EA05-2D41-4290-8594-9476E10D432D}"/>
+    <hyperlink ref="K23" r:id="rId18" xr:uid="{4239BE2D-C791-472B-BCCB-B25B20E6F138}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>